--- a/Figure2/Proteomics_Core_Analysis/kma_proteins_CoreAnalysis.xlsx
+++ b/Figure2/Proteomics_Core_Analysis/kma_proteins_CoreAnalysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doughty/Documents/GitHub/CHASSY_multiOmics_Analysis/Figure2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doughty/Documents/GitHub/CHASSY_multiOmics_Analysis/Figure2/Proteomics_Core_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F87E87AE-03FD-7244-9000-78C455885D3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D91CD4-C278-944B-9603-FFBA655014AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36460" yWindow="3720" windowWidth="28040" windowHeight="17440" activeTab="3"/>
+    <workbookView xWindow="-67020" yWindow="2160" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kma_Proteins_detected" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,20 @@
     <sheet name="kma_SIG_Proteins_LpH_logFC1" sheetId="3" r:id="rId3"/>
     <sheet name="kma_SIG_Proteins_Osm_logFC1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="973">
   <si>
     <t>genes</t>
   </si>
@@ -2564,12 +2572,390 @@
   </si>
   <si>
     <t>Core</t>
+  </si>
+  <si>
+    <t>Gene name</t>
+  </si>
+  <si>
+    <t>AAD16</t>
+  </si>
+  <si>
+    <t>ICL2</t>
+  </si>
+  <si>
+    <t>ARP9</t>
+  </si>
+  <si>
+    <t>CIT3</t>
+  </si>
+  <si>
+    <t>HEK2</t>
+  </si>
+  <si>
+    <t>RSM23</t>
+  </si>
+  <si>
+    <t>LYS12</t>
+  </si>
+  <si>
+    <t>MET13</t>
+  </si>
+  <si>
+    <t>ILV5</t>
+  </si>
+  <si>
+    <t>TIF5</t>
+  </si>
+  <si>
+    <t>SER1</t>
+  </si>
+  <si>
+    <t>RPS2</t>
+  </si>
+  <si>
+    <t>COX4</t>
+  </si>
+  <si>
+    <t>POL30</t>
+  </si>
+  <si>
+    <t>SPN1</t>
+  </si>
+  <si>
+    <t>RPP0</t>
+  </si>
+  <si>
+    <t>RSP5</t>
+  </si>
+  <si>
+    <t>40S ribosomal protein S24</t>
+  </si>
+  <si>
+    <t>YHB1</t>
+  </si>
+  <si>
+    <t>Leu2</t>
+  </si>
+  <si>
+    <t>MET6</t>
+  </si>
+  <si>
+    <t>SHB17</t>
+  </si>
+  <si>
+    <t>CDC10</t>
+  </si>
+  <si>
+    <t>ADE5,7</t>
+  </si>
+  <si>
+    <t>COX13</t>
+  </si>
+  <si>
+    <t>RPS31</t>
+  </si>
+  <si>
+    <t>RIB5</t>
+  </si>
+  <si>
+    <t>MCM2</t>
+  </si>
+  <si>
+    <t>QCR2</t>
+  </si>
+  <si>
+    <t>ERG20</t>
+  </si>
+  <si>
+    <t>TYS1</t>
+  </si>
+  <si>
+    <t>TDA3</t>
+  </si>
+  <si>
+    <t>SUB1</t>
+  </si>
+  <si>
+    <t>SAH1</t>
+  </si>
+  <si>
+    <t>THO1</t>
+  </si>
+  <si>
+    <t>MRPL19</t>
+  </si>
+  <si>
+    <t>MCR1</t>
+  </si>
+  <si>
+    <t>SPT6</t>
+  </si>
+  <si>
+    <t>NOP56</t>
+  </si>
+  <si>
+    <t>URA4</t>
+  </si>
+  <si>
+    <t>AIM2</t>
+  </si>
+  <si>
+    <t>RPL10</t>
+  </si>
+  <si>
+    <t>ATP16</t>
+  </si>
+  <si>
+    <t>40S ribosomal protein S8</t>
+  </si>
+  <si>
+    <t>ERG11</t>
+  </si>
+  <si>
+    <t>VMA1</t>
+  </si>
+  <si>
+    <t>UGA1</t>
+  </si>
+  <si>
+    <t>CYS4</t>
+  </si>
+  <si>
+    <t>ADE12</t>
+  </si>
+  <si>
+    <t>YOR283W</t>
+  </si>
+  <si>
+    <t>SGV1</t>
+  </si>
+  <si>
+    <t>YGR266W</t>
+  </si>
+  <si>
+    <t>SIS1</t>
+  </si>
+  <si>
+    <t>ZWF1</t>
+  </si>
+  <si>
+    <t>SSD1</t>
+  </si>
+  <si>
+    <t>TMA64</t>
+  </si>
+  <si>
+    <t>ARC35</t>
+  </si>
+  <si>
+    <t>YPL260W</t>
+  </si>
+  <si>
+    <t>GCV1</t>
+  </si>
+  <si>
+    <t>GLR1</t>
+  </si>
+  <si>
+    <t>TSA1</t>
+  </si>
+  <si>
+    <t>UBP3</t>
+  </si>
+  <si>
+    <t>Hsp78</t>
+  </si>
+  <si>
+    <t>PCM1</t>
+  </si>
+  <si>
+    <t>EHD3</t>
+  </si>
+  <si>
+    <t>PSE1</t>
+  </si>
+  <si>
+    <t>MTC1</t>
+  </si>
+  <si>
+    <t>CDC48</t>
+  </si>
+  <si>
+    <t>ERG4</t>
+  </si>
+  <si>
+    <t>CCT7</t>
+  </si>
+  <si>
+    <t>GCS1</t>
+  </si>
+  <si>
+    <t>SBA1</t>
+  </si>
+  <si>
+    <t>BCY1</t>
+  </si>
+  <si>
+    <t>GSH2</t>
+  </si>
+  <si>
+    <t>EDC3</t>
+  </si>
+  <si>
+    <t>Hsp82</t>
+  </si>
+  <si>
+    <t>BUR6</t>
+  </si>
+  <si>
+    <t>Hsp104</t>
+  </si>
+  <si>
+    <t>PRE6</t>
+  </si>
+  <si>
+    <t>YER010C</t>
+  </si>
+  <si>
+    <t>YJU3</t>
+  </si>
+  <si>
+    <t>PRM15</t>
+  </si>
+  <si>
+    <t>TFS1</t>
+  </si>
+  <si>
+    <t>RPT6</t>
+  </si>
+  <si>
+    <t>IST2</t>
+  </si>
+  <si>
+    <t>RGD2</t>
+  </si>
+  <si>
+    <t>GAD1</t>
+  </si>
+  <si>
+    <t>YME2</t>
+  </si>
+  <si>
+    <t>DSK2</t>
+  </si>
+  <si>
+    <t>TRP1</t>
+  </si>
+  <si>
+    <t>SFA1</t>
+  </si>
+  <si>
+    <t>HSP60</t>
+  </si>
+  <si>
+    <t>CCT4</t>
+  </si>
+  <si>
+    <t>ATP2</t>
+  </si>
+  <si>
+    <t>PRO3</t>
+  </si>
+  <si>
+    <t>PRE1</t>
+  </si>
+  <si>
+    <t>SMB1</t>
+  </si>
+  <si>
+    <t>ASF1</t>
+  </si>
+  <si>
+    <t>TPS2</t>
+  </si>
+  <si>
+    <t>YMR196W</t>
+  </si>
+  <si>
+    <t>STM1</t>
+  </si>
+  <si>
+    <t>DED81</t>
+  </si>
+  <si>
+    <t>LSC1</t>
+  </si>
+  <si>
+    <t>RUP1</t>
+  </si>
+  <si>
+    <t>NPT1</t>
+  </si>
+  <si>
+    <t>CPR6</t>
+  </si>
+  <si>
+    <t>YMR226C</t>
+  </si>
+  <si>
+    <t>TMA46</t>
+  </si>
+  <si>
+    <t>YPR127W</t>
+  </si>
+  <si>
+    <t>ATP3</t>
+  </si>
+  <si>
+    <t>MPM1</t>
+  </si>
+  <si>
+    <t>INO1</t>
+  </si>
+  <si>
+    <t>CCP1</t>
+  </si>
+  <si>
+    <t>URA6</t>
+  </si>
+  <si>
+    <t>FMP40</t>
+  </si>
+  <si>
+    <t>LAT1</t>
+  </si>
+  <si>
+    <t>SGT2</t>
+  </si>
+  <si>
+    <t>PDH1</t>
+  </si>
+  <si>
+    <t>ERG1</t>
+  </si>
+  <si>
+    <t>GPH1</t>
+  </si>
+  <si>
+    <t>YRB1</t>
+  </si>
+  <si>
+    <t>GUT2</t>
+  </si>
+  <si>
+    <t>MET17</t>
+  </si>
+  <si>
+    <t>LYS1</t>
+  </si>
+  <si>
+    <t>HEM13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3404,7 +3790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F844"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10185,2664 +10571,3012 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="G15:H18"/>
+      <selection activeCell="B2" sqref="B2:B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C2">
         <v>-3.2309663002258602</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>1.5878657439925301E-14</v>
       </c>
-      <c r="D2" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>-2.9470735118142799</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4.2475340671863901E-9</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>849</v>
+      </c>
+      <c r="C3">
+        <v>-2.5153520522133599</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.2484999120953902E-7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>-2.5202061647695699</v>
-      </c>
-      <c r="C4" s="1">
-        <v>9.6198376742629397E-11</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>850</v>
+      </c>
+      <c r="C4">
+        <v>-2.2633495210871799</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.3920580106500298E-5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>-2.5153520522133599</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5.2484999120953902E-7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>851</v>
+      </c>
+      <c r="C5">
+        <v>-2.1571357440222299</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.1272953931111695E-8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>-2.3892973415827998</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.9324392437809801E-6</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>852</v>
+      </c>
+      <c r="C6">
+        <v>-1.9664860975235401</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.9436513889930001E-5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>-2.2633495210871799</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4.3920580106500298E-5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>853</v>
+      </c>
+      <c r="C7">
+        <v>-1.8200236205589999</v>
+      </c>
+      <c r="D7">
+        <v>1.5604173518520099E-3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>-2.1571357440222299</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7.1272953931111695E-8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>854</v>
+      </c>
+      <c r="C8">
+        <v>-1.7835171256084901</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5.9126479531026103E-5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9">
-        <v>-2.0017267306287798</v>
-      </c>
-      <c r="C9" s="1">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>855</v>
+      </c>
+      <c r="C9">
+        <v>-1.74042038500443</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.2953269485513101E-5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>856</v>
+      </c>
+      <c r="C10">
+        <v>-1.7385113273014801</v>
+      </c>
+      <c r="D10" s="1">
         <v>4.8508738611466602E-5</v>
       </c>
-      <c r="D9" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10">
-        <v>-1.9664860975235401</v>
-      </c>
-      <c r="C10" s="1">
-        <v>8.9436513889930001E-5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>-1.8331613754662699</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3.5945456965828101E-5</v>
-      </c>
-      <c r="D11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>857</v>
+      </c>
+      <c r="C11">
+        <v>-1.6985789480422699</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.8541808958912297E-5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12">
-        <v>-1.8200236205589999</v>
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
+        <v>858</v>
       </c>
       <c r="C12">
-        <v>1.5604173518520099E-3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-1.65962756584877</v>
+      </c>
+      <c r="D12">
+        <v>3.8281932174652799E-3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13">
-        <v>-1.7897490876369699</v>
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>859</v>
       </c>
       <c r="C13">
-        <v>1.9201167326730401E-4</v>
-      </c>
-      <c r="D13" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-1.58861728799724</v>
+      </c>
+      <c r="D13">
+        <v>1.5878744186288299E-3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14">
-        <v>-1.7835171256084901</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5.9126479531026103E-5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>860</v>
+      </c>
+      <c r="C14">
+        <v>-1.5873500409939001</v>
+      </c>
+      <c r="D14">
+        <v>1.04366955659617E-4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>-1.74042038500443</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4.2953269485513101E-5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>846</v>
-      </c>
-      <c r="G15" t="s">
-        <v>846</v>
-      </c>
-      <c r="H15" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>861</v>
+      </c>
+      <c r="C15">
+        <v>-1.5532783744948899</v>
+      </c>
+      <c r="D15">
+        <v>1.07421289080744E-4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>846</v>
+      </c>
+      <c r="H15" t="s">
+        <v>846</v>
+      </c>
+      <c r="I15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16">
-        <v>-1.7385113273014801</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4.8508738611466602E-5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>846</v>
-      </c>
-      <c r="G16">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>862</v>
+      </c>
+      <c r="C16">
+        <v>-1.5256422216619201</v>
+      </c>
+      <c r="D16">
+        <v>5.9379993881937901E-4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>846</v>
+      </c>
+      <c r="H16">
         <v>532</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>311</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17">
-        <v>-1.6985789480422699</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3.8541808958912297E-5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>846</v>
-      </c>
-      <c r="G17">
-        <f>COUNTIF($D:$D,G15)</f>
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>863</v>
+      </c>
+      <c r="C17">
+        <v>-1.5249422875774701</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8.4754943767004998E-5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>846</v>
+      </c>
+      <c r="H17">
+        <f>COUNTIF($E:$E,H15)</f>
         <v>112</v>
       </c>
-      <c r="H17">
-        <f>COUNTIF($D:$D,H15)</f>
+      <c r="I17">
+        <f>COUNTIF($E:$E,I15)</f>
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18">
-        <v>-1.65962756584877</v>
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>864</v>
       </c>
       <c r="C18">
-        <v>3.8281932174652799E-3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>846</v>
-      </c>
-      <c r="G18">
-        <f>((G17/G16)*100)</f>
-        <v>21.052631578947366</v>
+        <v>-1.48893413856207</v>
+      </c>
+      <c r="D18">
+        <v>4.6224255826021998E-4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>846</v>
       </c>
       <c r="H18">
         <f>((H17/H16)*100)</f>
+        <v>21.052631578947366</v>
+      </c>
+      <c r="I18">
+        <f>((I17/I16)*100)</f>
         <v>21.54340836012862</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19">
-        <v>-1.58861728799724</v>
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>865</v>
       </c>
       <c r="C19">
+        <v>-1.4760058000593099</v>
+      </c>
+      <c r="D19">
+        <v>3.1080873478389298E-3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>866</v>
+      </c>
+      <c r="C20">
+        <v>-1.4672043184282</v>
+      </c>
+      <c r="D20">
+        <v>1.20567315944337E-3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>867</v>
+      </c>
+      <c r="C21">
+        <v>-1.4667443562195699</v>
+      </c>
+      <c r="D21">
+        <v>1.7264084946435E-3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>868</v>
+      </c>
+      <c r="C22">
+        <v>-1.4571681959031899</v>
+      </c>
+      <c r="D22">
+        <v>1.9201167326730401E-4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>869</v>
+      </c>
+      <c r="C23">
+        <v>-1.4394075093008201</v>
+      </c>
+      <c r="D23">
+        <v>1.7831673181051999E-3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" t="s">
+        <v>870</v>
+      </c>
+      <c r="C24">
+        <v>-1.42437483017347</v>
+      </c>
+      <c r="D24">
+        <v>8.8285789241701901E-3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>871</v>
+      </c>
+      <c r="C25">
+        <v>-1.4163729989216001</v>
+      </c>
+      <c r="D25">
+        <v>1.5604173518520099E-3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>872</v>
+      </c>
+      <c r="C26">
+        <v>-1.3633447478059699</v>
+      </c>
+      <c r="D26">
+        <v>1.13644366222341E-3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" t="s">
+        <v>873</v>
+      </c>
+      <c r="C27">
+        <v>-1.3218451325157601</v>
+      </c>
+      <c r="D27">
+        <v>2.9656194878744601E-3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s">
+        <v>874</v>
+      </c>
+      <c r="C28">
+        <v>-1.3190038231444201</v>
+      </c>
+      <c r="D28">
+        <v>2.58514906512985E-3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>875</v>
+      </c>
+      <c r="C29">
+        <v>-1.3142262970916401</v>
+      </c>
+      <c r="D29">
+        <v>4.4231642724721796E-3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>876</v>
+      </c>
+      <c r="C30">
+        <v>-1.31237607156381</v>
+      </c>
+      <c r="D30">
+        <v>3.4669825671749198E-3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" t="s">
+        <v>877</v>
+      </c>
+      <c r="C31">
+        <v>-1.3048924205232999</v>
+      </c>
+      <c r="D31">
+        <v>5.3378006671805896E-3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>878</v>
+      </c>
+      <c r="C32">
+        <v>-1.2815810520267701</v>
+      </c>
+      <c r="D32">
+        <v>1.5604173518520099E-3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" t="s">
+        <v>879</v>
+      </c>
+      <c r="C33">
+        <v>-1.2797846663541499</v>
+      </c>
+      <c r="D33">
+        <v>8.6210663183469809E-3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" t="s">
+        <v>880</v>
+      </c>
+      <c r="C34">
+        <v>-1.2558730608762201</v>
+      </c>
+      <c r="D34">
+        <v>3.8281932174652799E-3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>881</v>
+      </c>
+      <c r="C35">
+        <v>-1.2462948498192901</v>
+      </c>
+      <c r="D35">
+        <v>1.2763991488316799E-3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>882</v>
+      </c>
+      <c r="C36">
+        <v>-1.2329555516331601</v>
+      </c>
+      <c r="D36">
+        <v>3.9842719289637602E-3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" t="s">
+        <v>883</v>
+      </c>
+      <c r="C37">
+        <v>-1.2298282104310501</v>
+      </c>
+      <c r="D37">
+        <v>4.7424555363157197E-3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" t="s">
+        <v>884</v>
+      </c>
+      <c r="C38">
+        <v>-1.2256171641092</v>
+      </c>
+      <c r="D38">
+        <v>6.6850639050465401E-3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" t="s">
+        <v>885</v>
+      </c>
+      <c r="C39">
+        <v>-1.18483706057333</v>
+      </c>
+      <c r="D39">
+        <v>4.4536537380054598E-3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" t="s">
+        <v>886</v>
+      </c>
+      <c r="C40">
+        <v>-1.1840908548034099</v>
+      </c>
+      <c r="D40">
+        <v>3.5115149187625498E-3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>887</v>
+      </c>
+      <c r="C41">
+        <v>-1.1769514238679699</v>
+      </c>
+      <c r="D41">
+        <v>4.1604255079188898E-3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" t="s">
+        <v>888</v>
+      </c>
+      <c r="C42">
+        <v>-1.1660888705261101</v>
+      </c>
+      <c r="D42">
+        <v>3.9370556877934004E-3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" t="s">
+        <v>889</v>
+      </c>
+      <c r="C43">
+        <v>-1.15313018450792</v>
+      </c>
+      <c r="D43">
+        <v>3.0532070753667498E-3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" t="s">
+        <v>890</v>
+      </c>
+      <c r="C44">
+        <v>-1.14933031589799</v>
+      </c>
+      <c r="D44">
+        <v>3.6918929434661802E-3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" t="s">
+        <v>891</v>
+      </c>
+      <c r="C45">
+        <v>-1.1406381322715999</v>
+      </c>
+      <c r="D45">
+        <v>3.8281932174652799E-3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" t="s">
+        <v>892</v>
+      </c>
+      <c r="C46">
+        <v>-1.12841787917796</v>
+      </c>
+      <c r="D46">
+        <v>5.4796495405214597E-3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" t="s">
+        <v>893</v>
+      </c>
+      <c r="C47">
+        <v>-1.0896679422979501</v>
+      </c>
+      <c r="D47">
+        <v>7.5626524367302696E-3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" t="s">
+        <v>894</v>
+      </c>
+      <c r="C48">
+        <v>-1.05203993312349</v>
+      </c>
+      <c r="D48">
+        <v>7.5515930613143196E-3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" t="s">
+        <v>895</v>
+      </c>
+      <c r="C49">
+        <v>-1.03516952530859</v>
+      </c>
+      <c r="D49">
+        <v>6.2794680533468797E-3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" t="s">
+        <v>896</v>
+      </c>
+      <c r="C50">
+        <v>-1.0269761693072099</v>
+      </c>
+      <c r="D50">
+        <v>7.0791663194818902E-3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" t="s">
+        <v>897</v>
+      </c>
+      <c r="C51">
+        <v>1.04576499453839</v>
+      </c>
+      <c r="D51">
+        <v>7.71048015014372E-3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" t="s">
+        <v>898</v>
+      </c>
+      <c r="C52">
+        <v>1.0486017147768201</v>
+      </c>
+      <c r="D52">
+        <v>7.5515930613143196E-3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" t="s">
+        <v>899</v>
+      </c>
+      <c r="C53">
+        <v>1.09213230627543</v>
+      </c>
+      <c r="D53">
+        <v>7.5515930613143196E-3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" t="s">
+        <v>900</v>
+      </c>
+      <c r="C54">
+        <v>1.0978691375891201</v>
+      </c>
+      <c r="D54">
+        <v>9.3483046171252103E-3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" t="s">
+        <v>901</v>
+      </c>
+      <c r="C55">
+        <v>1.11120847488161</v>
+      </c>
+      <c r="D55">
+        <v>5.3378006671805896E-3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" t="s">
+        <v>902</v>
+      </c>
+      <c r="C56">
+        <v>1.1131732169691899</v>
+      </c>
+      <c r="D56">
+        <v>5.18439269867627E-3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>903</v>
+      </c>
+      <c r="C57">
+        <v>1.1188305470698101</v>
+      </c>
+      <c r="D57">
+        <v>3.0724035421131001E-3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" t="s">
+        <v>904</v>
+      </c>
+      <c r="C58">
+        <v>1.12798024142361</v>
+      </c>
+      <c r="D58">
+        <v>7.10705263014875E-3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" t="s">
+        <v>905</v>
+      </c>
+      <c r="C59">
+        <v>1.156238010279</v>
+      </c>
+      <c r="D59">
+        <v>9.2550923627623492E-3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="s">
+        <v>906</v>
+      </c>
+      <c r="C60">
+        <v>1.1837194246795799</v>
+      </c>
+      <c r="D60">
+        <v>1.6893581381542001E-3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s">
+        <v>907</v>
+      </c>
+      <c r="C61">
+        <v>1.1873078667856201</v>
+      </c>
+      <c r="D61">
+        <v>3.8041958616454401E-3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>908</v>
+      </c>
+      <c r="C62">
+        <v>1.19540724760549</v>
+      </c>
+      <c r="D62">
+        <v>3.5834186998498999E-3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>909</v>
+      </c>
+      <c r="C63">
+        <v>1.20131610410283</v>
+      </c>
+      <c r="D63">
+        <v>3.8041958616454401E-3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" t="s">
+        <v>910</v>
+      </c>
+      <c r="C64">
+        <v>1.21245772549409</v>
+      </c>
+      <c r="D64">
+        <v>9.7299610345891897E-3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" t="s">
+        <v>911</v>
+      </c>
+      <c r="C65">
+        <v>1.2286971120888199</v>
+      </c>
+      <c r="D65">
         <v>1.5878744186288299E-3</v>
       </c>
-      <c r="D19" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20">
-        <v>-1.5873500409939001</v>
-      </c>
-      <c r="C20">
+      <c r="E65" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" t="s">
+        <v>912</v>
+      </c>
+      <c r="C66">
+        <v>1.23626289514151</v>
+      </c>
+      <c r="D66">
+        <v>1.79837857461667E-3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" t="s">
+        <v>913</v>
+      </c>
+      <c r="C67">
+        <v>1.2380165435293</v>
+      </c>
+      <c r="D67">
+        <v>2.51068647325505E-3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" t="s">
+        <v>914</v>
+      </c>
+      <c r="C68">
+        <v>1.24265595282311</v>
+      </c>
+      <c r="D68">
+        <v>3.2575405654637901E-3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" t="s">
+        <v>915</v>
+      </c>
+      <c r="C69">
+        <v>1.2564161825242499</v>
+      </c>
+      <c r="D69">
+        <v>2.58514906512985E-3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" t="s">
+        <v>916</v>
+      </c>
+      <c r="C70">
+        <v>1.26511861741391</v>
+      </c>
+      <c r="D70">
+        <v>3.2575405654637901E-3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" t="s">
+        <v>917</v>
+      </c>
+      <c r="C71">
+        <v>1.28100788951286</v>
+      </c>
+      <c r="D71">
+        <v>1.3941581204833301E-3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" t="s">
+        <v>918</v>
+      </c>
+      <c r="C72">
+        <v>1.2957786557316699</v>
+      </c>
+      <c r="D72">
+        <v>6.2293334135635602E-3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" t="s">
+        <v>919</v>
+      </c>
+      <c r="C73">
+        <v>1.29947170810228</v>
+      </c>
+      <c r="D73">
+        <v>1.9182035549899501E-3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>920</v>
+      </c>
+      <c r="C74">
+        <v>1.33617870230953</v>
+      </c>
+      <c r="D74">
+        <v>4.76738508952591E-4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" t="s">
+        <v>921</v>
+      </c>
+      <c r="C75">
+        <v>1.34091188007605</v>
+      </c>
+      <c r="D75">
+        <v>1.6266554771581299E-3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" t="s">
+        <v>922</v>
+      </c>
+      <c r="C76">
+        <v>1.3416228906193399</v>
+      </c>
+      <c r="D76">
+        <v>2.58514906512985E-3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" t="s">
+        <v>923</v>
+      </c>
+      <c r="C77">
+        <v>1.35441879227155</v>
+      </c>
+      <c r="D77">
+        <v>4.27683579139277E-4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
+        <v>924</v>
+      </c>
+      <c r="C78">
+        <v>1.37130124843114</v>
+      </c>
+      <c r="D78">
+        <v>6.3578346360172403E-3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>925</v>
+      </c>
+      <c r="C79">
+        <v>1.3780370425891699</v>
+      </c>
+      <c r="D79">
+        <v>1.0693659116588899E-3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" t="s">
+        <v>926</v>
+      </c>
+      <c r="C80">
+        <v>1.3832410473944901</v>
+      </c>
+      <c r="D80">
+        <v>3.8777543984204802E-4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>927</v>
+      </c>
+      <c r="C81">
+        <v>1.38607650853463</v>
+      </c>
+      <c r="D81">
+        <v>9.0585640390327099E-4</v>
+      </c>
+      <c r="E81" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>928</v>
+      </c>
+      <c r="C82">
+        <v>1.39091725592056</v>
+      </c>
+      <c r="D82">
+        <v>1.5276404650891699E-3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" t="s">
+        <v>929</v>
+      </c>
+      <c r="C83">
+        <v>1.39980143930031</v>
+      </c>
+      <c r="D83">
+        <v>6.8104170879099602E-4</v>
+      </c>
+      <c r="E83" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" t="s">
+        <v>930</v>
+      </c>
+      <c r="C84">
+        <v>1.4122219527486199</v>
+      </c>
+      <c r="D84">
+        <v>3.4038245699642101E-3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" t="s">
+        <v>931</v>
+      </c>
+      <c r="C85">
+        <v>1.42246525309292</v>
+      </c>
+      <c r="D85">
+        <v>3.82298319074754E-3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" t="s">
+        <v>932</v>
+      </c>
+      <c r="C86">
+        <v>1.46875954733962</v>
+      </c>
+      <c r="D86">
+        <v>3.0532070753667498E-3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" t="s">
+        <v>933</v>
+      </c>
+      <c r="C87">
+        <v>1.50321356702357</v>
+      </c>
+      <c r="D87">
+        <v>1.82849857545611E-4</v>
+      </c>
+      <c r="E87" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" t="s">
+        <v>934</v>
+      </c>
+      <c r="C88">
+        <v>1.5829790852222301</v>
+      </c>
+      <c r="D88" s="1">
+        <v>6.7390254852898906E-5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" t="s">
+        <v>935</v>
+      </c>
+      <c r="C89">
+        <v>1.5861012834738399</v>
+      </c>
+      <c r="D89">
+        <v>2.58514906512985E-3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" t="s">
+        <v>936</v>
+      </c>
+      <c r="C90">
+        <v>1.60127748223029</v>
+      </c>
+      <c r="D90">
+        <v>2.1109742372246899E-4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" t="s">
+        <v>937</v>
+      </c>
+      <c r="C91">
+        <v>1.60933148495532</v>
+      </c>
+      <c r="D91" s="1">
+        <v>4.8508738611466602E-5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" t="s">
+        <v>938</v>
+      </c>
+      <c r="C92">
+        <v>1.6176276692332301</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3.22126914255791E-5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>939</v>
+      </c>
+      <c r="C93">
+        <v>1.6226102743955999</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2.74867399798952E-5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" t="s">
+        <v>940</v>
+      </c>
+      <c r="C94">
+        <v>1.6248388284484101</v>
+      </c>
+      <c r="D94">
+        <v>1.82849857545611E-4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" t="s">
+        <v>941</v>
+      </c>
+      <c r="C95">
+        <v>1.64654767157612</v>
+      </c>
+      <c r="D95" s="1">
+        <v>3.04068477485985E-5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96" t="s">
+        <v>942</v>
+      </c>
+      <c r="C96">
+        <v>1.65185219912716</v>
+      </c>
+      <c r="D96">
+        <v>5.9379993881937901E-4</v>
+      </c>
+      <c r="E96" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>47</v>
+      </c>
+      <c r="B97" t="s">
+        <v>943</v>
+      </c>
+      <c r="C97">
+        <v>1.6615843646586199</v>
+      </c>
+      <c r="D97">
         <v>1.04366955659617E-4</v>
       </c>
-      <c r="D20" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="E97" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" t="s">
+        <v>944</v>
+      </c>
+      <c r="C98">
+        <v>1.6874606185824801</v>
+      </c>
+      <c r="D98">
+        <v>6.0313184470479496E-4</v>
+      </c>
+      <c r="E98" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>945</v>
+      </c>
+      <c r="C99">
+        <v>1.7170873390232899</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3.04500111202585E-5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>66</v>
+      </c>
+      <c r="B100" t="s">
+        <v>946</v>
+      </c>
+      <c r="C100">
+        <v>1.77591956093531</v>
+      </c>
+      <c r="D100">
+        <v>4.1920236695308801E-4</v>
+      </c>
+      <c r="E100" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" t="s">
+        <v>947</v>
+      </c>
+      <c r="C101">
+        <v>1.7900022982067001</v>
+      </c>
+      <c r="D101">
+        <v>1.43027197988766E-3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" t="s">
+        <v>948</v>
+      </c>
+      <c r="C102">
+        <v>1.79365545640616</v>
+      </c>
+      <c r="D102" s="1">
+        <v>3.4557503050616098E-6</v>
+      </c>
+      <c r="E102" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" t="s">
+        <v>949</v>
+      </c>
+      <c r="C103">
+        <v>1.8212998644467799</v>
+      </c>
+      <c r="D103" s="1">
+        <v>4.8508738611466602E-5</v>
+      </c>
+      <c r="E103" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" t="s">
+        <v>950</v>
+      </c>
+      <c r="C104">
+        <v>1.82721169104448</v>
+      </c>
+      <c r="D104" s="1">
+        <v>3.1488620289023001E-6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105" t="s">
+        <v>951</v>
+      </c>
+      <c r="C105">
+        <v>1.8402829091124899</v>
+      </c>
+      <c r="D105" s="1">
+        <v>4.15255187170027E-5</v>
+      </c>
+      <c r="E105" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>86</v>
+      </c>
+      <c r="B106" t="s">
+        <v>952</v>
+      </c>
+      <c r="C106">
+        <v>1.92780656828203</v>
+      </c>
+      <c r="D106">
+        <v>1.3941581204833301E-3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>953</v>
+      </c>
+      <c r="C107">
+        <v>1.94266984146656</v>
+      </c>
+      <c r="D107" s="1">
+        <v>7.8748510558136101E-7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108" t="s">
+        <v>954</v>
+      </c>
+      <c r="C108">
+        <v>1.9822436666285299</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1.5144915444866001E-5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" t="s">
+        <v>955</v>
+      </c>
+      <c r="C109">
+        <v>2.0210842638478002</v>
+      </c>
+      <c r="D109">
+        <v>1.82849857545611E-4</v>
+      </c>
+      <c r="E109" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>50</v>
+      </c>
+      <c r="B110" t="s">
+        <v>956</v>
+      </c>
+      <c r="C110">
+        <v>2.0844511960746201</v>
+      </c>
+      <c r="D110">
+        <v>1.33319965966276E-4</v>
+      </c>
+      <c r="E110" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" t="s">
+        <v>957</v>
+      </c>
+      <c r="C111">
+        <v>2.0852049020665402</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1.7076658470176601E-6</v>
+      </c>
+      <c r="E111" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" t="s">
+        <v>958</v>
+      </c>
+      <c r="C112">
+        <v>2.1529413497307099</v>
+      </c>
+      <c r="D112" s="1">
+        <v>3.4564399084705098E-5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>959</v>
+      </c>
+      <c r="C113">
+        <v>2.8292026485033399</v>
+      </c>
+      <c r="D113" s="1">
+        <v>2.4380011916787802E-9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>-2.9470735118142799</v>
+      </c>
+      <c r="D114" s="1">
+        <v>4.2475340671863901E-9</v>
+      </c>
+      <c r="E114" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>-2.5202061647695699</v>
+      </c>
+      <c r="D115" s="1">
+        <v>9.6198376742629397E-11</v>
+      </c>
+      <c r="E115" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116">
+        <v>-2.3892973415827998</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1.9324392437809801E-6</v>
+      </c>
+      <c r="E116" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117">
+        <v>-2.0017267306287798</v>
+      </c>
+      <c r="D117" s="1">
+        <v>4.8508738611466602E-5</v>
+      </c>
+      <c r="E117" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118">
+        <v>-1.8331613754662699</v>
+      </c>
+      <c r="D118" s="1">
+        <v>3.5945456965828101E-5</v>
+      </c>
+      <c r="E118" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119">
+        <v>-1.7897490876369699</v>
+      </c>
+      <c r="D119">
+        <v>1.9201167326730401E-4</v>
+      </c>
+      <c r="E119" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>42</v>
       </c>
-      <c r="B21">
+      <c r="C120">
         <v>-1.5814058869543699</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D120" s="1">
         <v>7.7689090276225305E-5</v>
       </c>
-      <c r="D21" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22">
-        <v>-1.5532783744948899</v>
-      </c>
-      <c r="C22">
-        <v>1.07421289080744E-4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="E120" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>49</v>
       </c>
-      <c r="B23">
+      <c r="C121">
         <v>-1.53957450545621</v>
       </c>
-      <c r="C23">
+      <c r="D121">
         <v>1.1907224436670299E-4</v>
       </c>
-      <c r="D23" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24">
-        <v>-1.5256422216619201</v>
-      </c>
-      <c r="C24">
-        <v>5.9379993881937901E-4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25">
-        <v>-1.5249422875774701</v>
-      </c>
-      <c r="C25" s="1">
-        <v>8.4754943767004998E-5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="E121" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>122</v>
       </c>
-      <c r="B26">
+      <c r="C122">
         <v>-1.5081774191397801</v>
       </c>
-      <c r="C26">
+      <c r="D122">
         <v>3.0724035421131001E-3</v>
       </c>
-      <c r="D26" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="E122" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>92</v>
       </c>
-      <c r="B27">
+      <c r="C123">
         <v>-1.5046527310323401</v>
       </c>
-      <c r="C27">
+      <c r="D123">
         <v>1.5604173518520099E-3</v>
       </c>
-      <c r="D27" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="E123" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>75</v>
       </c>
-      <c r="B28">
+      <c r="C124">
         <v>-1.50121880833337</v>
       </c>
-      <c r="C28">
+      <c r="D124">
         <v>5.9764903107406597E-4</v>
       </c>
-      <c r="D28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="E124" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>68</v>
       </c>
-      <c r="B29">
+      <c r="C125">
         <v>-1.49397021998807</v>
       </c>
-      <c r="C29">
+      <c r="D125">
         <v>4.27683579139277E-4</v>
       </c>
-      <c r="D29" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30">
-        <v>-1.48893413856207</v>
-      </c>
-      <c r="C30">
-        <v>4.6224255826021998E-4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31">
-        <v>-1.4760058000593099</v>
-      </c>
-      <c r="C31">
-        <v>3.1080873478389298E-3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32">
-        <v>-1.4672043184282</v>
-      </c>
-      <c r="C32">
-        <v>1.20567315944337E-3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33">
-        <v>-1.4667443562195699</v>
-      </c>
-      <c r="C33">
-        <v>1.7264084946435E-3</v>
-      </c>
-      <c r="D33" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34">
-        <v>-1.4571681959031899</v>
-      </c>
-      <c r="C34">
+      <c r="E125" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>107</v>
+      </c>
+      <c r="C126">
+        <v>-1.4130221665906799</v>
+      </c>
+      <c r="D126">
+        <v>2.1682413039586699E-3</v>
+      </c>
+      <c r="E126" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>96</v>
+      </c>
+      <c r="C127">
+        <v>-1.3978776449339401</v>
+      </c>
+      <c r="D127">
+        <v>1.5865121614855801E-3</v>
+      </c>
+      <c r="E127" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>94</v>
+      </c>
+      <c r="C128">
+        <v>-1.38526837115941</v>
+      </c>
+      <c r="D128">
+        <v>1.5604173518520099E-3</v>
+      </c>
+      <c r="E128" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>119</v>
+      </c>
+      <c r="C129">
+        <v>-1.3592508116627799</v>
+      </c>
+      <c r="D129">
+        <v>3.0532070753667498E-3</v>
+      </c>
+      <c r="E129" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>150</v>
+      </c>
+      <c r="C130">
+        <v>-1.33299469063595</v>
+      </c>
+      <c r="D130">
+        <v>5.4425974132961798E-3</v>
+      </c>
+      <c r="E130" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>106</v>
+      </c>
+      <c r="C131">
+        <v>-1.32031120806348</v>
+      </c>
+      <c r="D131">
+        <v>2.0754806921548501E-3</v>
+      </c>
+      <c r="E131" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>81</v>
+      </c>
+      <c r="C132">
+        <v>-1.28982159434531</v>
+      </c>
+      <c r="D132">
+        <v>1.0693659116588899E-3</v>
+      </c>
+      <c r="E132" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>111</v>
+      </c>
+      <c r="C133">
+        <v>-1.2445473142029699</v>
+      </c>
+      <c r="D133">
+        <v>2.51525654828784E-3</v>
+      </c>
+      <c r="E133" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>152</v>
+      </c>
+      <c r="C134">
+        <v>-1.17662614956767</v>
+      </c>
+      <c r="D134">
+        <v>6.1965164306196302E-3</v>
+      </c>
+      <c r="E134" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>105</v>
+      </c>
+      <c r="C135">
+        <v>-1.16943950612164</v>
+      </c>
+      <c r="D135">
+        <v>2.05551699426588E-3</v>
+      </c>
+      <c r="E135" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>171</v>
+      </c>
+      <c r="C136">
+        <v>-1.12379584305602</v>
+      </c>
+      <c r="D136">
+        <v>8.7274447309599098E-3</v>
+      </c>
+      <c r="E136" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>173</v>
+      </c>
+      <c r="C137">
+        <v>-1.1062652515501801</v>
+      </c>
+      <c r="D137">
+        <v>9.0349748156148598E-3</v>
+      </c>
+      <c r="E137" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>166</v>
+      </c>
+      <c r="C138">
+        <v>-1.0970164560482401</v>
+      </c>
+      <c r="D138">
+        <v>7.6934352741607802E-3</v>
+      </c>
+      <c r="E138" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C139">
+        <v>-1.08592002834604</v>
+      </c>
+      <c r="D139">
+        <v>9.7299610345891897E-3</v>
+      </c>
+      <c r="E139" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140">
+        <v>-1.07856694984735</v>
+      </c>
+      <c r="D140">
+        <v>6.3578346360172403E-3</v>
+      </c>
+      <c r="E140" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>174</v>
+      </c>
+      <c r="C141">
+        <v>-1.0212305028353601</v>
+      </c>
+      <c r="D141">
+        <v>9.0813252384795203E-3</v>
+      </c>
+      <c r="E141" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>181</v>
+      </c>
+      <c r="C142">
+        <v>-1.0087339918031</v>
+      </c>
+      <c r="D142">
+        <v>9.9544387705510304E-3</v>
+      </c>
+      <c r="E142" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>170</v>
+      </c>
+      <c r="C143">
+        <v>1.0213203363572501</v>
+      </c>
+      <c r="D143">
+        <v>8.6873557250460101E-3</v>
+      </c>
+      <c r="E143" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>169</v>
+      </c>
+      <c r="C144">
+        <v>1.0509798953557901</v>
+      </c>
+      <c r="D144">
+        <v>8.6873557250460101E-3</v>
+      </c>
+      <c r="E144" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>156</v>
+      </c>
+      <c r="C145">
+        <v>1.15105587869701</v>
+      </c>
+      <c r="D145">
+        <v>6.3578346360172403E-3</v>
+      </c>
+      <c r="E145" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>108</v>
+      </c>
+      <c r="C146">
+        <v>1.1837721850174701</v>
+      </c>
+      <c r="D146">
+        <v>2.4999696002161501E-3</v>
+      </c>
+      <c r="E146" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>177</v>
+      </c>
+      <c r="C147">
+        <v>1.1877183907483</v>
+      </c>
+      <c r="D147">
+        <v>9.6210597214203396E-3</v>
+      </c>
+      <c r="E147" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>136</v>
+      </c>
+      <c r="C148">
+        <v>1.23518868261286</v>
+      </c>
+      <c r="D148">
+        <v>3.8281932174652799E-3</v>
+      </c>
+      <c r="E148" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>178</v>
+      </c>
+      <c r="C149">
+        <v>1.2863691880519601</v>
+      </c>
+      <c r="D149">
+        <v>9.6210597214203396E-3</v>
+      </c>
+      <c r="E149" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>109</v>
+      </c>
+      <c r="C150">
+        <v>1.32497898955545</v>
+      </c>
+      <c r="D150">
+        <v>2.5017293390445401E-3</v>
+      </c>
+      <c r="E150" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>158</v>
+      </c>
+      <c r="C151">
+        <v>1.3593557975783399</v>
+      </c>
+      <c r="D151">
+        <v>6.6464902199462597E-3</v>
+      </c>
+      <c r="E151" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>95</v>
+      </c>
+      <c r="C152">
+        <v>1.3624652182768999</v>
+      </c>
+      <c r="D152">
+        <v>1.5604173518520099E-3</v>
+      </c>
+      <c r="E152" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>78</v>
+      </c>
+      <c r="C153">
+        <v>1.3759227118375299</v>
+      </c>
+      <c r="D153">
+        <v>7.4747913614727597E-4</v>
+      </c>
+      <c r="E153" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>145</v>
+      </c>
+      <c r="C154">
+        <v>1.40048536024304</v>
+      </c>
+      <c r="D154">
+        <v>4.6271454704511902E-3</v>
+      </c>
+      <c r="E154" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>64</v>
+      </c>
+      <c r="C155">
+        <v>1.4022905772280201</v>
+      </c>
+      <c r="D155">
+        <v>3.2997138747186501E-4</v>
+      </c>
+      <c r="E155" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156">
+        <v>1.4157584359453499</v>
+      </c>
+      <c r="D156">
+        <v>1.24624132306372E-3</v>
+      </c>
+      <c r="E156" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>59</v>
+      </c>
+      <c r="C157">
+        <v>1.41633830934657</v>
+      </c>
+      <c r="D157">
+        <v>2.0167308499360599E-4</v>
+      </c>
+      <c r="E157" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>142</v>
+      </c>
+      <c r="C158">
+        <v>1.4780078910452801</v>
+      </c>
+      <c r="D158">
+        <v>4.2270583298889804E-3</v>
+      </c>
+      <c r="E158" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>62</v>
+      </c>
+      <c r="C159">
+        <v>1.5120010677651401</v>
+      </c>
+      <c r="D159">
+        <v>2.5675218772461402E-4</v>
+      </c>
+      <c r="E159" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>45</v>
+      </c>
+      <c r="C160">
+        <v>1.51676108007827</v>
+      </c>
+      <c r="D160" s="1">
+        <v>8.9436513889930001E-5</v>
+      </c>
+      <c r="E160" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>115</v>
+      </c>
+      <c r="C161">
+        <v>1.52634861300713</v>
+      </c>
+      <c r="D161">
+        <v>2.58514906512985E-3</v>
+      </c>
+      <c r="E161" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>57</v>
+      </c>
+      <c r="C162">
+        <v>1.5355307278261401</v>
+      </c>
+      <c r="D162">
         <v>1.9201167326730401E-4</v>
       </c>
-      <c r="D34" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35">
-        <v>-1.4394075093008201</v>
-      </c>
-      <c r="C35">
-        <v>1.7831673181051999E-3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>172</v>
-      </c>
-      <c r="B36">
-        <v>-1.42437483017347</v>
-      </c>
-      <c r="C36">
-        <v>8.8285789241701901E-3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37">
-        <v>-1.4163729989216001</v>
-      </c>
-      <c r="C37">
-        <v>1.5604173518520099E-3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38">
-        <v>-1.4130221665906799</v>
-      </c>
-      <c r="C38">
-        <v>2.1682413039586699E-3</v>
-      </c>
-      <c r="D38" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39">
-        <v>-1.3978776449339401</v>
-      </c>
-      <c r="C39">
-        <v>1.5865121614855801E-3</v>
-      </c>
-      <c r="D39" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40">
-        <v>-1.38526837115941</v>
-      </c>
-      <c r="C40">
-        <v>1.5604173518520099E-3</v>
-      </c>
-      <c r="D40" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41">
-        <v>-1.3633447478059699</v>
-      </c>
-      <c r="C41">
-        <v>1.13644366222341E-3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42">
-        <v>-1.3592508116627799</v>
-      </c>
-      <c r="C42">
-        <v>3.0532070753667498E-3</v>
-      </c>
-      <c r="D42" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>150</v>
-      </c>
-      <c r="B43">
-        <v>-1.33299469063595</v>
-      </c>
-      <c r="C43">
-        <v>5.4425974132961798E-3</v>
-      </c>
-      <c r="D43" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44">
-        <v>-1.3218451325157601</v>
-      </c>
-      <c r="C44">
-        <v>2.9656194878744601E-3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45">
-        <v>-1.32031120806348</v>
-      </c>
-      <c r="C45">
-        <v>2.0754806921548501E-3</v>
-      </c>
-      <c r="D45" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>116</v>
-      </c>
-      <c r="B46">
-        <v>-1.3190038231444201</v>
-      </c>
-      <c r="C46">
-        <v>2.58514906512985E-3</v>
-      </c>
-      <c r="D46" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47">
-        <v>-1.3142262970916401</v>
-      </c>
-      <c r="C47">
-        <v>4.4231642724721796E-3</v>
-      </c>
-      <c r="D47" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48">
-        <v>-1.31237607156381</v>
-      </c>
-      <c r="C48">
-        <v>3.4669825671749198E-3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49">
-        <v>-1.3048924205232999</v>
-      </c>
-      <c r="C49">
-        <v>5.3378006671805896E-3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50">
-        <v>-1.28982159434531</v>
-      </c>
-      <c r="C50">
-        <v>1.0693659116588899E-3</v>
-      </c>
-      <c r="D50" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51">
-        <v>-1.2815810520267701</v>
-      </c>
-      <c r="C51">
-        <v>1.5604173518520099E-3</v>
-      </c>
-      <c r="D51" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>168</v>
-      </c>
-      <c r="B52">
-        <v>-1.2797846663541499</v>
-      </c>
-      <c r="C52">
-        <v>8.6210663183469809E-3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53">
-        <v>-1.2558730608762201</v>
-      </c>
-      <c r="C53">
-        <v>3.8281932174652799E-3</v>
-      </c>
-      <c r="D53" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54">
-        <v>-1.2462948498192901</v>
-      </c>
-      <c r="C54">
-        <v>1.2763991488316799E-3</v>
-      </c>
-      <c r="D54" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55">
-        <v>-1.2445473142029699</v>
-      </c>
-      <c r="C55">
-        <v>2.51525654828784E-3</v>
-      </c>
-      <c r="D55" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>140</v>
-      </c>
-      <c r="B56">
-        <v>-1.2329555516331601</v>
-      </c>
-      <c r="C56">
-        <v>3.9842719289637602E-3</v>
-      </c>
-      <c r="D56" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57">
-        <v>-1.2298282104310501</v>
-      </c>
-      <c r="C57">
-        <v>4.7424555363157197E-3</v>
-      </c>
-      <c r="D57" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58">
-        <v>-1.2256171641092</v>
-      </c>
-      <c r="C58">
-        <v>6.6850639050465401E-3</v>
-      </c>
-      <c r="D58" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59">
-        <v>-1.18483706057333</v>
-      </c>
-      <c r="C59">
-        <v>4.4536537380054598E-3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60">
-        <v>-1.1840908548034099</v>
-      </c>
-      <c r="C60">
-        <v>3.5115149187625498E-3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>141</v>
-      </c>
-      <c r="B61">
-        <v>-1.1769514238679699</v>
-      </c>
-      <c r="C61">
-        <v>4.1604255079188898E-3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>152</v>
-      </c>
-      <c r="B62">
-        <v>-1.17662614956767</v>
-      </c>
-      <c r="C62">
-        <v>6.1965164306196302E-3</v>
-      </c>
-      <c r="D62" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>105</v>
-      </c>
-      <c r="B63">
-        <v>-1.16943950612164</v>
-      </c>
-      <c r="C63">
-        <v>2.05551699426588E-3</v>
-      </c>
-      <c r="D63" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>139</v>
-      </c>
-      <c r="B64">
-        <v>-1.1660888705261101</v>
-      </c>
-      <c r="C64">
-        <v>3.9370556877934004E-3</v>
-      </c>
-      <c r="D64" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65">
-        <v>-1.15313018450792</v>
-      </c>
-      <c r="C65">
-        <v>3.0532070753667498E-3</v>
-      </c>
-      <c r="D65" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66">
-        <v>-1.14933031589799</v>
-      </c>
-      <c r="C66">
-        <v>3.6918929434661802E-3</v>
-      </c>
-      <c r="D66" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67">
-        <v>-1.1406381322715999</v>
-      </c>
-      <c r="C67">
-        <v>3.8281932174652799E-3</v>
-      </c>
-      <c r="D67" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>151</v>
-      </c>
-      <c r="B68">
-        <v>-1.12841787917796</v>
-      </c>
-      <c r="C68">
-        <v>5.4796495405214597E-3</v>
-      </c>
-      <c r="D68" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>171</v>
-      </c>
-      <c r="B69">
-        <v>-1.12379584305602</v>
-      </c>
-      <c r="C69">
-        <v>8.7274447309599098E-3</v>
-      </c>
-      <c r="D69" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>173</v>
-      </c>
-      <c r="B70">
-        <v>-1.1062652515501801</v>
-      </c>
-      <c r="C70">
-        <v>9.0349748156148598E-3</v>
-      </c>
-      <c r="D70" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>166</v>
-      </c>
-      <c r="B71">
-        <v>-1.0970164560482401</v>
-      </c>
-      <c r="C71">
-        <v>7.6934352741607802E-3</v>
-      </c>
-      <c r="D71" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>165</v>
-      </c>
-      <c r="B72">
-        <v>-1.0896679422979501</v>
-      </c>
-      <c r="C72">
-        <v>7.5626524367302696E-3</v>
-      </c>
-      <c r="D72" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>180</v>
-      </c>
-      <c r="B73">
-        <v>-1.08592002834604</v>
-      </c>
-      <c r="C73">
-        <v>9.7299610345891897E-3</v>
-      </c>
-      <c r="D73" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>157</v>
-      </c>
-      <c r="B74">
-        <v>-1.07856694984735</v>
-      </c>
-      <c r="C74">
-        <v>6.3578346360172403E-3</v>
-      </c>
-      <c r="D74" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>163</v>
-      </c>
-      <c r="B75">
-        <v>-1.05203993312349</v>
-      </c>
-      <c r="C75">
-        <v>7.5515930613143196E-3</v>
-      </c>
-      <c r="D75" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>154</v>
-      </c>
-      <c r="B76">
-        <v>-1.03516952530859</v>
-      </c>
-      <c r="C76">
-        <v>6.2794680533468797E-3</v>
-      </c>
-      <c r="D76" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>160</v>
-      </c>
-      <c r="B77">
-        <v>-1.0269761693072099</v>
-      </c>
-      <c r="C77">
-        <v>7.0791663194818902E-3</v>
-      </c>
-      <c r="D77" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>174</v>
-      </c>
-      <c r="B78">
-        <v>-1.0212305028353601</v>
-      </c>
-      <c r="C78">
-        <v>9.0813252384795203E-3</v>
-      </c>
-      <c r="D78" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>181</v>
-      </c>
-      <c r="B79">
-        <v>-1.0087339918031</v>
-      </c>
-      <c r="C79">
-        <v>9.9544387705510304E-3</v>
-      </c>
-      <c r="D79" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>170</v>
-      </c>
-      <c r="B80">
-        <v>1.0213203363572501</v>
-      </c>
-      <c r="C80">
-        <v>8.6873557250460101E-3</v>
-      </c>
-      <c r="D80" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>167</v>
-      </c>
-      <c r="B81">
-        <v>1.04576499453839</v>
-      </c>
-      <c r="C81">
-        <v>7.71048015014372E-3</v>
-      </c>
-      <c r="D81" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>164</v>
-      </c>
-      <c r="B82">
-        <v>1.0486017147768201</v>
-      </c>
-      <c r="C82">
-        <v>7.5515930613143196E-3</v>
-      </c>
-      <c r="D82" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>169</v>
-      </c>
-      <c r="B83">
-        <v>1.0509798953557901</v>
-      </c>
-      <c r="C83">
-        <v>8.6873557250460101E-3</v>
-      </c>
-      <c r="D83" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>162</v>
-      </c>
-      <c r="B84">
-        <v>1.09213230627543</v>
-      </c>
-      <c r="C84">
-        <v>7.5515930613143196E-3</v>
-      </c>
-      <c r="D84" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>176</v>
-      </c>
-      <c r="B85">
-        <v>1.0978691375891201</v>
-      </c>
-      <c r="C85">
-        <v>9.3483046171252103E-3</v>
-      </c>
-      <c r="D85" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>149</v>
-      </c>
-      <c r="B86">
-        <v>1.11120847488161</v>
-      </c>
-      <c r="C86">
-        <v>5.3378006671805896E-3</v>
-      </c>
-      <c r="D86" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>147</v>
-      </c>
-      <c r="B87">
-        <v>1.1131732169691899</v>
-      </c>
-      <c r="C87">
-        <v>5.18439269867627E-3</v>
-      </c>
-      <c r="D87" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>121</v>
-      </c>
-      <c r="B88">
-        <v>1.1188305470698101</v>
-      </c>
-      <c r="C88">
-        <v>3.0724035421131001E-3</v>
-      </c>
-      <c r="D88" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>161</v>
-      </c>
-      <c r="B89">
-        <v>1.12798024142361</v>
-      </c>
-      <c r="C89">
-        <v>7.10705263014875E-3</v>
-      </c>
-      <c r="D89" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>156</v>
-      </c>
-      <c r="B90">
-        <v>1.15105587869701</v>
-      </c>
-      <c r="C90">
-        <v>6.3578346360172403E-3</v>
-      </c>
-      <c r="D90" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>175</v>
-      </c>
-      <c r="B91">
-        <v>1.156238010279</v>
-      </c>
-      <c r="C91">
-        <v>9.2550923627623492E-3</v>
-      </c>
-      <c r="D91" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>100</v>
-      </c>
-      <c r="B92">
-        <v>1.1837194246795799</v>
-      </c>
-      <c r="C92">
-        <v>1.6893581381542001E-3</v>
-      </c>
-      <c r="D92" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>108</v>
-      </c>
-      <c r="B93">
-        <v>1.1837721850174701</v>
-      </c>
-      <c r="C93">
-        <v>2.4999696002161501E-3</v>
-      </c>
-      <c r="D93" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>133</v>
-      </c>
-      <c r="B94">
-        <v>1.1873078667856201</v>
-      </c>
-      <c r="C94">
-        <v>3.8041958616454401E-3</v>
-      </c>
-      <c r="D94" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>177</v>
-      </c>
-      <c r="B95">
-        <v>1.1877183907483</v>
-      </c>
-      <c r="C95">
-        <v>9.6210597214203396E-3</v>
-      </c>
-      <c r="D95" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>129</v>
-      </c>
-      <c r="B96">
-        <v>1.19540724760549</v>
-      </c>
-      <c r="C96">
-        <v>3.5834186998498999E-3</v>
-      </c>
-      <c r="D96" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>132</v>
-      </c>
-      <c r="B97">
-        <v>1.20131610410283</v>
-      </c>
-      <c r="C97">
-        <v>3.8041958616454401E-3</v>
-      </c>
-      <c r="D97" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>179</v>
-      </c>
-      <c r="B98">
-        <v>1.21245772549409</v>
-      </c>
-      <c r="C98">
-        <v>9.7299610345891897E-3</v>
-      </c>
-      <c r="D98" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>1.2286971120888199</v>
-      </c>
-      <c r="C99">
-        <v>1.5878744186288299E-3</v>
-      </c>
-      <c r="D99" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>136</v>
-      </c>
-      <c r="B100">
-        <v>1.23518868261286</v>
-      </c>
-      <c r="C100">
-        <v>3.8281932174652799E-3</v>
-      </c>
-      <c r="D100" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101">
-        <v>1.23626289514151</v>
-      </c>
-      <c r="C101">
-        <v>1.79837857461667E-3</v>
-      </c>
-      <c r="D101" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>110</v>
-      </c>
-      <c r="B102">
-        <v>1.2380165435293</v>
-      </c>
-      <c r="C102">
-        <v>2.51068647325505E-3</v>
-      </c>
-      <c r="D102" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>124</v>
-      </c>
-      <c r="B103">
-        <v>1.24265595282311</v>
-      </c>
-      <c r="C103">
-        <v>3.2575405654637901E-3</v>
-      </c>
-      <c r="D103" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>113</v>
-      </c>
-      <c r="B104">
-        <v>1.2564161825242499</v>
-      </c>
-      <c r="C104">
-        <v>2.58514906512985E-3</v>
-      </c>
-      <c r="D104" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>125</v>
-      </c>
-      <c r="B105">
-        <v>1.26511861741391</v>
-      </c>
-      <c r="C105">
-        <v>3.2575405654637901E-3</v>
-      </c>
-      <c r="D105" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>87</v>
-      </c>
-      <c r="B106">
-        <v>1.28100788951286</v>
-      </c>
-      <c r="C106">
-        <v>1.3941581204833301E-3</v>
-      </c>
-      <c r="D106" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>178</v>
-      </c>
-      <c r="B107">
-        <v>1.2863691880519601</v>
-      </c>
-      <c r="C107">
-        <v>9.6210597214203396E-3</v>
-      </c>
-      <c r="D107" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>153</v>
-      </c>
-      <c r="B108">
-        <v>1.2957786557316699</v>
-      </c>
-      <c r="C108">
-        <v>6.2293334135635602E-3</v>
-      </c>
-      <c r="D108" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>104</v>
-      </c>
-      <c r="B109">
-        <v>1.29947170810228</v>
-      </c>
-      <c r="C109">
-        <v>1.9182035549899501E-3</v>
-      </c>
-      <c r="D109" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110">
-        <v>1.32497898955545</v>
-      </c>
-      <c r="C110">
-        <v>2.5017293390445401E-3</v>
-      </c>
-      <c r="D110" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>71</v>
-      </c>
-      <c r="B111">
-        <v>1.33617870230953</v>
-      </c>
-      <c r="C111">
-        <v>4.76738508952591E-4</v>
-      </c>
-      <c r="D111" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>99</v>
-      </c>
-      <c r="B112">
-        <v>1.34091188007605</v>
-      </c>
-      <c r="C112">
-        <v>1.6266554771581299E-3</v>
-      </c>
-      <c r="D112" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113">
-        <v>1.3416228906193399</v>
-      </c>
-      <c r="C113">
-        <v>2.58514906512985E-3</v>
-      </c>
-      <c r="D113" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>69</v>
-      </c>
-      <c r="B114">
-        <v>1.35441879227155</v>
-      </c>
-      <c r="C114">
-        <v>4.27683579139277E-4</v>
-      </c>
-      <c r="D114" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>158</v>
-      </c>
-      <c r="B115">
-        <v>1.3593557975783399</v>
-      </c>
-      <c r="C115">
-        <v>6.6464902199462597E-3</v>
-      </c>
-      <c r="D115" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>95</v>
-      </c>
-      <c r="B116">
-        <v>1.3624652182768999</v>
-      </c>
-      <c r="C116">
-        <v>1.5604173518520099E-3</v>
-      </c>
-      <c r="D116" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>155</v>
-      </c>
-      <c r="B117">
-        <v>1.37130124843114</v>
-      </c>
-      <c r="C117">
-        <v>6.3578346360172403E-3</v>
-      </c>
-      <c r="D117" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>78</v>
-      </c>
-      <c r="B118">
-        <v>1.3759227118375299</v>
-      </c>
-      <c r="C118">
-        <v>7.4747913614727597E-4</v>
-      </c>
-      <c r="D118" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>80</v>
-      </c>
-      <c r="B119">
-        <v>1.3780370425891699</v>
-      </c>
-      <c r="C119">
-        <v>1.0693659116588899E-3</v>
-      </c>
-      <c r="D119" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>65</v>
-      </c>
-      <c r="B120">
-        <v>1.3832410473944901</v>
-      </c>
-      <c r="C120">
-        <v>3.8777543984204802E-4</v>
-      </c>
-      <c r="D120" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>79</v>
-      </c>
-      <c r="B121">
-        <v>1.38607650853463</v>
-      </c>
-      <c r="C121">
-        <v>9.0585640390327099E-4</v>
-      </c>
-      <c r="D121" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>89</v>
-      </c>
-      <c r="B122">
-        <v>1.39091725592056</v>
-      </c>
-      <c r="C122">
-        <v>1.5276404650891699E-3</v>
-      </c>
-      <c r="D122" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>77</v>
-      </c>
-      <c r="B123">
-        <v>1.39980143930031</v>
-      </c>
-      <c r="C123">
-        <v>6.8104170879099602E-4</v>
-      </c>
-      <c r="D123" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>145</v>
-      </c>
-      <c r="B124">
-        <v>1.40048536024304</v>
-      </c>
-      <c r="C124">
-        <v>4.6271454704511902E-3</v>
-      </c>
-      <c r="D124" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>64</v>
-      </c>
-      <c r="B125">
-        <v>1.4022905772280201</v>
-      </c>
-      <c r="C125">
-        <v>3.2997138747186501E-4</v>
-      </c>
-      <c r="D125" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126">
-        <v>1.4122219527486199</v>
-      </c>
-      <c r="C126">
-        <v>3.4038245699642101E-3</v>
-      </c>
-      <c r="D126" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>84</v>
-      </c>
-      <c r="B127">
-        <v>1.4157584359453499</v>
-      </c>
-      <c r="C127">
-        <v>1.24624132306372E-3</v>
-      </c>
-      <c r="D127" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>59</v>
-      </c>
-      <c r="B128">
-        <v>1.41633830934657</v>
-      </c>
-      <c r="C128">
-        <v>2.0167308499360599E-4</v>
-      </c>
-      <c r="D128" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>134</v>
-      </c>
-      <c r="B129">
-        <v>1.42246525309292</v>
-      </c>
-      <c r="C129">
-        <v>3.82298319074754E-3</v>
-      </c>
-      <c r="D129" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>120</v>
-      </c>
-      <c r="B130">
-        <v>1.46875954733962</v>
-      </c>
-      <c r="C130">
-        <v>3.0532070753667498E-3</v>
-      </c>
-      <c r="D130" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>142</v>
-      </c>
-      <c r="B131">
-        <v>1.4780078910452801</v>
-      </c>
-      <c r="C131">
-        <v>4.2270583298889804E-3</v>
-      </c>
-      <c r="D131" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>52</v>
-      </c>
-      <c r="B132">
-        <v>1.50321356702357</v>
-      </c>
-      <c r="C132">
-        <v>1.82849857545611E-4</v>
-      </c>
-      <c r="D132" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>62</v>
-      </c>
-      <c r="B133">
-        <v>1.5120010677651401</v>
-      </c>
-      <c r="C133">
-        <v>2.5675218772461402E-4</v>
-      </c>
-      <c r="D133" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>45</v>
-      </c>
-      <c r="B134">
-        <v>1.51676108007827</v>
-      </c>
-      <c r="C134" s="1">
-        <v>8.9436513889930001E-5</v>
-      </c>
-      <c r="D134" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>115</v>
-      </c>
-      <c r="B135">
-        <v>1.52634861300713</v>
-      </c>
-      <c r="C135">
-        <v>2.58514906512985E-3</v>
-      </c>
-      <c r="D135" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>57</v>
-      </c>
-      <c r="B136">
-        <v>1.5355307278261401</v>
-      </c>
-      <c r="C136">
-        <v>1.9201167326730401E-4</v>
-      </c>
-      <c r="D136" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="E162" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>131</v>
       </c>
-      <c r="B137">
+      <c r="C163">
         <v>1.53884231370696</v>
       </c>
-      <c r="C137">
+      <c r="D163">
         <v>3.7357062135713001E-3</v>
       </c>
-      <c r="D137" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>40</v>
-      </c>
-      <c r="B138">
-        <v>1.5829790852222301</v>
-      </c>
-      <c r="C138" s="1">
-        <v>6.7390254852898906E-5</v>
-      </c>
-      <c r="D138" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>112</v>
-      </c>
-      <c r="B139">
-        <v>1.5861012834738399</v>
-      </c>
-      <c r="C139">
-        <v>2.58514906512985E-3</v>
-      </c>
-      <c r="D139" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>60</v>
-      </c>
-      <c r="B140">
-        <v>1.60127748223029</v>
-      </c>
-      <c r="C140">
-        <v>2.1109742372246899E-4</v>
-      </c>
-      <c r="D140" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>34</v>
-      </c>
-      <c r="B141">
-        <v>1.60933148495532</v>
-      </c>
-      <c r="C141" s="1">
+      <c r="E163" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>39</v>
+      </c>
+      <c r="C164">
+        <v>1.6311206939235501</v>
+      </c>
+      <c r="D164" s="1">
+        <v>6.4461639020118103E-5</v>
+      </c>
+      <c r="E164" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>67</v>
+      </c>
+      <c r="C165">
+        <v>1.6333421994564701</v>
+      </c>
+      <c r="D165">
+        <v>4.2296973581596001E-4</v>
+      </c>
+      <c r="E165" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>36</v>
+      </c>
+      <c r="C166">
+        <v>1.6513174670460999</v>
+      </c>
+      <c r="D166" s="1">
         <v>4.8508738611466602E-5</v>
       </c>
-      <c r="D141" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>26</v>
-      </c>
-      <c r="B142">
-        <v>1.6176276692332301</v>
-      </c>
-      <c r="C142" s="1">
-        <v>3.22126914255791E-5</v>
-      </c>
-      <c r="D142" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>23</v>
-      </c>
-      <c r="B143">
-        <v>1.6226102743955999</v>
-      </c>
-      <c r="C143" s="1">
-        <v>2.74867399798952E-5</v>
-      </c>
-      <c r="D143" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>54</v>
-      </c>
-      <c r="B144">
-        <v>1.6248388284484101</v>
-      </c>
-      <c r="C144">
-        <v>1.82849857545611E-4</v>
-      </c>
-      <c r="D144" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>39</v>
-      </c>
-      <c r="B145">
-        <v>1.6311206939235501</v>
-      </c>
-      <c r="C145" s="1">
-        <v>6.4461639020118103E-5</v>
-      </c>
-      <c r="D145" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>67</v>
-      </c>
-      <c r="B146">
-        <v>1.6333421994564701</v>
-      </c>
-      <c r="C146">
-        <v>4.2296973581596001E-4</v>
-      </c>
-      <c r="D146" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>24</v>
-      </c>
-      <c r="B147">
-        <v>1.64654767157612</v>
-      </c>
-      <c r="C147" s="1">
-        <v>3.04068477485985E-5</v>
-      </c>
-      <c r="D147" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>36</v>
-      </c>
-      <c r="B148">
-        <v>1.6513174670460999</v>
-      </c>
-      <c r="C148" s="1">
-        <v>4.8508738611466602E-5</v>
-      </c>
-      <c r="D148" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>73</v>
-      </c>
-      <c r="B149">
-        <v>1.65185219912716</v>
-      </c>
-      <c r="C149">
-        <v>5.9379993881937901E-4</v>
-      </c>
-      <c r="D149" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>47</v>
-      </c>
-      <c r="B150">
-        <v>1.6615843646586199</v>
-      </c>
-      <c r="C150">
-        <v>1.04366955659617E-4</v>
-      </c>
-      <c r="D150" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>76</v>
-      </c>
-      <c r="B151">
-        <v>1.6874606185824801</v>
-      </c>
-      <c r="C151">
-        <v>6.0313184470479496E-4</v>
-      </c>
-      <c r="D151" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="E166" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>63</v>
       </c>
-      <c r="B152">
+      <c r="C167">
         <v>1.69500045391405</v>
       </c>
-      <c r="C152">
+      <c r="D167">
         <v>3.1076085590991801E-4</v>
       </c>
-      <c r="D152" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>25</v>
-      </c>
-      <c r="B153">
-        <v>1.7170873390232899</v>
-      </c>
-      <c r="C153" s="1">
-        <v>3.04500111202585E-5</v>
-      </c>
-      <c r="D153" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="E167" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>72</v>
       </c>
-      <c r="B154">
+      <c r="C168">
         <v>1.7333183413401101</v>
       </c>
-      <c r="C154">
+      <c r="D168">
         <v>5.3690414970675095E-4</v>
       </c>
-      <c r="D154" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+      <c r="E168" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>55</v>
       </c>
-      <c r="B155">
+      <c r="C169">
         <v>1.7536517699472101</v>
       </c>
-      <c r="C155">
+      <c r="D169">
         <v>1.8478062467097299E-4</v>
       </c>
-      <c r="D155" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>66</v>
-      </c>
-      <c r="B156">
-        <v>1.77591956093531</v>
-      </c>
-      <c r="C156">
-        <v>4.1920236695308801E-4</v>
-      </c>
-      <c r="D156" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>88</v>
-      </c>
-      <c r="B157">
-        <v>1.7900022982067001</v>
-      </c>
-      <c r="C157">
-        <v>1.43027197988766E-3</v>
-      </c>
-      <c r="D157" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>19</v>
-      </c>
-      <c r="B158">
-        <v>1.79365545640616</v>
-      </c>
-      <c r="C158" s="1">
-        <v>3.4557503050616098E-6</v>
-      </c>
-      <c r="D158" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>33</v>
-      </c>
-      <c r="B159">
-        <v>1.8212998644467799</v>
-      </c>
-      <c r="C159" s="1">
-        <v>4.8508738611466602E-5</v>
-      </c>
-      <c r="D159" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="E169" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>18</v>
       </c>
-      <c r="B160">
+      <c r="C170">
         <v>1.8229911289355101</v>
       </c>
-      <c r="C160" s="1">
+      <c r="D170" s="1">
         <v>3.3124372463398301E-6</v>
       </c>
-      <c r="D160" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>17</v>
-      </c>
-      <c r="B161">
-        <v>1.82721169104448</v>
-      </c>
-      <c r="C161" s="1">
-        <v>3.1488620289023001E-6</v>
-      </c>
-      <c r="D161" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="E170" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>41</v>
       </c>
-      <c r="B162">
+      <c r="C171">
         <v>1.8311814494671199</v>
       </c>
-      <c r="C162" s="1">
+      <c r="D171" s="1">
         <v>6.7823441724179794E-5</v>
       </c>
-      <c r="D162" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>30</v>
-      </c>
-      <c r="B163">
-        <v>1.8402829091124899</v>
-      </c>
-      <c r="C163" s="1">
-        <v>4.15255187170027E-5</v>
-      </c>
-      <c r="D163" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="E171" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>20</v>
       </c>
-      <c r="B164">
+      <c r="C172">
         <v>1.8644983372892301</v>
       </c>
-      <c r="C164" s="1">
+      <c r="D172" s="1">
         <v>7.3882595747370001E-6</v>
       </c>
-      <c r="D164" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="E172" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>61</v>
       </c>
-      <c r="B165">
+      <c r="C173">
         <v>1.9085505915270899</v>
       </c>
-      <c r="C165">
+      <c r="D173">
         <v>2.1163804664131599E-4</v>
       </c>
-      <c r="D165" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>86</v>
-      </c>
-      <c r="B166">
-        <v>1.92780656828203</v>
-      </c>
-      <c r="C166">
-        <v>1.3941581204833301E-3</v>
-      </c>
-      <c r="D166" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>13</v>
-      </c>
-      <c r="B167">
-        <v>1.94266984146656</v>
-      </c>
-      <c r="C167" s="1">
-        <v>7.8748510558136101E-7</v>
-      </c>
-      <c r="D167" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>22</v>
-      </c>
-      <c r="B168">
-        <v>1.9822436666285299</v>
-      </c>
-      <c r="C168" s="1">
-        <v>1.5144915444866001E-5</v>
-      </c>
-      <c r="D168" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>53</v>
-      </c>
-      <c r="B169">
-        <v>2.0210842638478002</v>
-      </c>
-      <c r="C169">
-        <v>1.82849857545611E-4</v>
-      </c>
-      <c r="D169" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>50</v>
-      </c>
-      <c r="B170">
-        <v>2.0844511960746201</v>
-      </c>
-      <c r="C170">
-        <v>1.33319965966276E-4</v>
-      </c>
-      <c r="D170" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>15</v>
-      </c>
-      <c r="B171">
-        <v>2.0852049020665402</v>
-      </c>
-      <c r="C171" s="1">
-        <v>1.7076658470176601E-6</v>
-      </c>
-      <c r="D171" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+      <c r="E173" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>51</v>
       </c>
-      <c r="B172">
+      <c r="C174">
         <v>2.1196334410096802</v>
       </c>
-      <c r="C172">
+      <c r="D174">
         <v>1.7370154452167101E-4</v>
       </c>
-      <c r="D172" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+      <c r="E174" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>10</v>
       </c>
-      <c r="B173">
+      <c r="C175">
         <v>2.1504341092929602</v>
       </c>
-      <c r="C173" s="1">
+      <c r="D175" s="1">
         <v>2.8442025982657201E-8</v>
       </c>
-      <c r="D173" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>27</v>
-      </c>
-      <c r="B174">
-        <v>2.1529413497307099</v>
-      </c>
-      <c r="C174" s="1">
-        <v>3.4564399084705098E-5</v>
-      </c>
-      <c r="D174" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+      <c r="E175" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>21</v>
       </c>
-      <c r="B175">
+      <c r="C176">
         <v>2.2161857955858699</v>
       </c>
-      <c r="C175" s="1">
+      <c r="D176" s="1">
         <v>1.0698520165737801E-5</v>
       </c>
-      <c r="D175" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+      <c r="E176" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>8</v>
       </c>
-      <c r="B176">
+      <c r="C177">
         <v>2.27629567615053</v>
       </c>
-      <c r="C176" s="1">
+      <c r="D177" s="1">
         <v>4.2475340671863901E-9</v>
       </c>
-      <c r="D176" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="E177" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>7</v>
       </c>
-      <c r="B177">
+      <c r="C178">
         <v>2.3482791192186498</v>
       </c>
-      <c r="C177" s="1">
+      <c r="D178" s="1">
         <v>3.0386807057800101E-9</v>
       </c>
-      <c r="D177" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="E178" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>14</v>
       </c>
-      <c r="B178">
+      <c r="C179">
         <v>2.55811717472666</v>
       </c>
-      <c r="C178" s="1">
+      <c r="D179" s="1">
         <v>1.1015745324136099E-6</v>
       </c>
-      <c r="D178" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="E179" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>6</v>
       </c>
-      <c r="B179">
+      <c r="C180">
         <v>2.5998568869357901</v>
       </c>
-      <c r="C179" s="1">
+      <c r="D180" s="1">
         <v>2.4380011916787802E-9</v>
       </c>
-      <c r="D179" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B180">
-        <v>2.8292026485033399</v>
-      </c>
-      <c r="C180" s="1">
-        <v>2.4380011916787802E-9</v>
-      </c>
-      <c r="D180" t="s">
-        <v>846</v>
+      <c r="E180" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D180">
-    <sortCondition ref="B2:B180"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E180">
+    <sortCondition ref="E2:E180"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:H18"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1.5816872871288901</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.59285113511342E-3</v>
       </c>
-      <c r="D2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>79</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>927</v>
+      </c>
+      <c r="C3">
         <v>1.5682680046652699</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3.9037978634495801E-3</v>
       </c>
-      <c r="D3" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>139</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>888</v>
+      </c>
+      <c r="C4">
         <v>1.60226723714052</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4.4844930874430302E-3</v>
       </c>
-      <c r="D4" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G15" t="s">
-        <v>846</v>
-      </c>
-      <c r="H15" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G16">
+      <c r="E4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>846</v>
+      </c>
+      <c r="I15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H16">
         <v>532</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>311</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G17">
-        <f>COUNTIF($D:$D,G15)</f>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <f>COUNTIF($E:$E,H15)</f>
         <v>2</v>
       </c>
-      <c r="H17">
-        <f>COUNTIF($D:$D,H15)</f>
+      <c r="I17">
+        <f>COUNTIF($E:$E,I15)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G18">
-        <f>((G17/G16)*100)</f>
-        <v>0.37593984962406013</v>
-      </c>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H18">
         <f>((H17/H16)*100)</f>
+        <v>0.37593984962406013</v>
+      </c>
+      <c r="I18">
+        <f>((I17/I16)*100)</f>
         <v>0.32154340836012862</v>
       </c>
     </row>
@@ -12852,909 +13586,1011 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>740</v>
-      </c>
-      <c r="B2">
-        <v>3.01942668371326</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.90806106684359E-17</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C2">
+        <v>-2.90034556458482</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.3246037902067302E-11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3">
-        <v>-2.90034556458482</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4.3246037902067302E-11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>927</v>
+      </c>
+      <c r="C3">
+        <v>2.4740135609351799</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.66765647880015E-9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4">
-        <v>-5.2616701040003502</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4.3246037902067302E-11</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C4">
+        <v>-3.0114375311168202</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.6782072167123598E-8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>817</v>
-      </c>
-      <c r="B5">
-        <v>2.6378623057101098</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4.3246037902067302E-11</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>851</v>
+      </c>
+      <c r="C5">
+        <v>-2.0363976627636302</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.2398913429883801E-7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6">
-        <v>2.4740135609351799</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.66765647880015E-9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>784</v>
+      </c>
+      <c r="B6" t="s">
+        <v>961</v>
+      </c>
+      <c r="C6">
+        <v>1.62770299553158</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.6632923364449304E-6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>-3.0114375311168202</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.6782072167123598E-8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="B7" t="s">
+        <v>962</v>
+      </c>
+      <c r="C7">
+        <v>1.92664127138173</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.55176246348841E-5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>614</v>
-      </c>
-      <c r="B8">
-        <v>-2.2770598203599199</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.6782072167123598E-8</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>848</v>
+      </c>
+      <c r="C8">
+        <v>-1.69660745136806</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.90157285698301E-5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>-2.0363976627636302</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.2398913429883801E-7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="B9" t="s">
+        <v>963</v>
+      </c>
+      <c r="C9">
+        <v>1.29053719978016</v>
+      </c>
+      <c r="D9">
+        <v>5.8998250732534305E-4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10">
-        <v>1.9015392139996901</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.4875086514144801E-7</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>948</v>
+      </c>
+      <c r="C10">
+        <v>1.34219887443188</v>
+      </c>
+      <c r="D10">
+        <v>7.5464822392885703E-4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>784</v>
-      </c>
-      <c r="B11">
-        <v>1.62770299553158</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4.6632923364449304E-6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>912</v>
+      </c>
+      <c r="C11">
+        <v>1.3782247626808599</v>
+      </c>
+      <c r="D11">
+        <v>7.6058500990937804E-4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1.5822204488867699</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.08992200204655E-5</v>
-      </c>
-      <c r="D12" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>950</v>
+      </c>
+      <c r="C12">
+        <v>1.27214126465564</v>
+      </c>
+      <c r="D12">
+        <v>8.6394250758593295E-4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>561</v>
-      </c>
-      <c r="B13">
-        <v>1.8904323147248701</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.34561556329297E-5</v>
-      </c>
-      <c r="D13" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="B13" t="s">
+        <v>964</v>
+      </c>
+      <c r="C13">
+        <v>-2.1460238321143601</v>
+      </c>
+      <c r="D13">
+        <v>1.0572253419304199E-3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>344</v>
-      </c>
-      <c r="B14">
-        <v>1.92664127138173</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.55176246348841E-5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+      <c r="B14" t="s">
+        <v>965</v>
+      </c>
+      <c r="C14">
+        <v>-1.5461872443098901</v>
+      </c>
+      <c r="D14">
+        <v>1.15380415051944E-3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>-1.69660745136806</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2.90157285698301E-5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>846</v>
-      </c>
-      <c r="G15" t="s">
-        <v>846</v>
-      </c>
-      <c r="H15" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="B15" t="s">
+        <v>905</v>
+      </c>
+      <c r="C15">
+        <v>1.37632200235362</v>
+      </c>
+      <c r="D15">
+        <v>1.2409955096713901E-3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>846</v>
+      </c>
+      <c r="H15" t="s">
+        <v>846</v>
+      </c>
+      <c r="I15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>260</v>
-      </c>
-      <c r="B16">
-        <v>-2.96441369045887</v>
+        <v>420</v>
+      </c>
+      <c r="B16" t="s">
+        <v>966</v>
       </c>
       <c r="C16">
-        <v>1.1150676098149901E-4</v>
-      </c>
-      <c r="D16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G16">
+        <v>-1.2710400636988499</v>
+      </c>
+      <c r="D16">
+        <v>1.30032036994123E-3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>846</v>
+      </c>
+      <c r="H16">
         <v>532</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>311</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>660</v>
-      </c>
-      <c r="B17">
-        <v>1.57697662160957</v>
+        <v>766</v>
+      </c>
+      <c r="B17" t="s">
+        <v>967</v>
       </c>
       <c r="C17">
-        <v>2.00784299473594E-4</v>
-      </c>
-      <c r="D17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G17">
-        <f>COUNTIF($D:$D,G15)</f>
+        <v>-1.26267175331976</v>
+      </c>
+      <c r="D17">
+        <v>1.33856763021095E-3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>846</v>
+      </c>
+      <c r="H17">
+        <f>COUNTIF($E:$E,H15)</f>
         <v>31</v>
       </c>
-      <c r="H17">
-        <f>COUNTIF($D:$D,H15)</f>
+      <c r="I17">
+        <f>COUNTIF($E:$E,I15)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>301</v>
-      </c>
-      <c r="B18">
-        <v>1.3336918729473499</v>
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>861</v>
       </c>
       <c r="C18">
-        <v>2.00784299473594E-4</v>
-      </c>
-      <c r="D18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G18">
-        <f>((G17/G16)*100)</f>
-        <v>5.8270676691729317</v>
+        <v>-1.31252008447112</v>
+      </c>
+      <c r="D18">
+        <v>1.4017661317271501E-3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>846</v>
       </c>
       <c r="H18">
         <f>((H17/H16)*100)</f>
+        <v>5.8270676691729317</v>
+      </c>
+      <c r="I18">
+        <f>((I17/I16)*100)</f>
         <v>9.6463022508038581</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>730</v>
+      </c>
+      <c r="B19" t="s">
+        <v>968</v>
+      </c>
+      <c r="C19">
+        <v>-1.50751847322803</v>
+      </c>
+      <c r="D19">
+        <v>1.9414306211482501E-3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>925</v>
+      </c>
+      <c r="C20">
+        <v>1.20605246707633</v>
+      </c>
+      <c r="D20">
+        <v>2.3079565417698199E-3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>959</v>
+      </c>
+      <c r="C21">
+        <v>2.9512745622934702</v>
+      </c>
+      <c r="D21">
+        <v>2.42091376186745E-3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>940</v>
+      </c>
+      <c r="C22">
+        <v>1.2512487943025401</v>
+      </c>
+      <c r="D22">
+        <v>2.5563156492546201E-3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>796</v>
+      </c>
+      <c r="B23" t="s">
+        <v>969</v>
+      </c>
+      <c r="C23">
+        <v>-1.06398875158162</v>
+      </c>
+      <c r="D23">
+        <v>2.7914975518458299E-3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" t="s">
+        <v>877</v>
+      </c>
+      <c r="C24">
+        <v>-1.55604091337636</v>
+      </c>
+      <c r="D24">
+        <v>4.9189735085519801E-3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>517</v>
+      </c>
+      <c r="B25" t="s">
+        <v>970</v>
+      </c>
+      <c r="C25">
+        <v>-1.04774104715767</v>
+      </c>
+      <c r="D25">
+        <v>5.0051131827925704E-3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="s">
+        <v>901</v>
+      </c>
+      <c r="C26">
+        <v>1.1163257161900999</v>
+      </c>
+      <c r="D26">
+        <v>5.2372228012780696E-3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>558</v>
+      </c>
+      <c r="B27" t="s">
+        <v>971</v>
+      </c>
+      <c r="C27">
+        <v>1.1463224221466399</v>
+      </c>
+      <c r="D27">
+        <v>5.5068080902828404E-3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>946</v>
+      </c>
+      <c r="C28">
+        <v>1.1628430707892099</v>
+      </c>
+      <c r="D28">
+        <v>5.72415070956754E-3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>957</v>
+      </c>
+      <c r="C29">
+        <v>1.3472363785424299</v>
+      </c>
+      <c r="D29">
+        <v>5.8300029615156301E-3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>938</v>
+      </c>
+      <c r="C30">
+        <v>1.21731090079201</v>
+      </c>
+      <c r="D30">
+        <v>8.0480317432250498E-3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" t="s">
+        <v>924</v>
+      </c>
+      <c r="C31">
+        <v>1.00528744480995</v>
+      </c>
+      <c r="D31">
+        <v>9.6096834799730205E-3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>687</v>
+      </c>
+      <c r="B32" t="s">
+        <v>972</v>
+      </c>
+      <c r="C32">
+        <v>-1.24025052815361</v>
+      </c>
+      <c r="D32">
+        <v>9.9723695765772998E-3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>740</v>
+      </c>
+      <c r="C33">
+        <v>3.01942668371326</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.90806106684359E-17</v>
+      </c>
+      <c r="E33" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34">
+        <v>-5.2616701040003502</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4.3246037902067302E-11</v>
+      </c>
+      <c r="E34" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>817</v>
+      </c>
+      <c r="C35">
+        <v>2.6378623057101098</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4.3246037902067302E-11</v>
+      </c>
+      <c r="E35" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>614</v>
+      </c>
+      <c r="C36">
+        <v>-2.2770598203599199</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2.6782072167123598E-8</v>
+      </c>
+      <c r="E36" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37">
+        <v>1.9015392139996901</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.4875086514144801E-7</v>
+      </c>
+      <c r="E37" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>1.5822204488867699</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.08992200204655E-5</v>
+      </c>
+      <c r="E38" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>561</v>
+      </c>
+      <c r="C39">
+        <v>1.8904323147248701</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.34561556329297E-5</v>
+      </c>
+      <c r="E39" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40">
+        <v>-2.96441369045887</v>
+      </c>
+      <c r="D40">
+        <v>1.1150676098149901E-4</v>
+      </c>
+      <c r="E40" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>660</v>
+      </c>
+      <c r="C41">
+        <v>1.57697662160957</v>
+      </c>
+      <c r="D41">
+        <v>2.00784299473594E-4</v>
+      </c>
+      <c r="E41" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>301</v>
+      </c>
+      <c r="C42">
+        <v>1.3336918729473499</v>
+      </c>
+      <c r="D42">
+        <v>2.00784299473594E-4</v>
+      </c>
+      <c r="E42" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>8</v>
       </c>
-      <c r="B19">
+      <c r="C43">
         <v>1.38204599704766</v>
       </c>
-      <c r="C19">
+      <c r="D43">
         <v>2.2207358394777299E-4</v>
       </c>
-      <c r="D19" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="E43" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>807</v>
       </c>
-      <c r="B20">
+      <c r="C44">
         <v>-1.9199217937027699</v>
       </c>
-      <c r="C20">
+      <c r="D44">
         <v>2.6742997163613398E-4</v>
       </c>
-      <c r="D20" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>230</v>
-      </c>
-      <c r="B21">
-        <v>1.29053719978016</v>
-      </c>
-      <c r="C21">
+      <c r="E44" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>253</v>
+      </c>
+      <c r="C45">
+        <v>2.0580165098787302</v>
+      </c>
+      <c r="D45">
         <v>5.8998250732534305E-4</v>
       </c>
-      <c r="D21" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>253</v>
-      </c>
-      <c r="B22">
-        <v>2.0580165098787302</v>
-      </c>
-      <c r="C22">
-        <v>5.8998250732534305E-4</v>
-      </c>
-      <c r="D22" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="E45" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>62</v>
       </c>
-      <c r="B23">
+      <c r="C46">
         <v>-1.2253105472802099</v>
       </c>
-      <c r="C23">
+      <c r="D46">
         <v>7.5328107440800305E-4</v>
       </c>
-      <c r="D23" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>1.34219887443188</v>
-      </c>
-      <c r="C24">
+      <c r="E46" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>726</v>
+      </c>
+      <c r="C47">
+        <v>-1.20606400088455</v>
+      </c>
+      <c r="D47">
         <v>7.5464822392885703E-4</v>
       </c>
-      <c r="D24" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>726</v>
-      </c>
-      <c r="B25">
-        <v>-1.20606400088455</v>
-      </c>
-      <c r="C25">
-        <v>7.5464822392885703E-4</v>
-      </c>
-      <c r="D25" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26">
-        <v>1.3782247626808599</v>
-      </c>
-      <c r="C26">
-        <v>7.6058500990937804E-4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27">
-        <v>1.27214126465564</v>
-      </c>
-      <c r="C27">
+      <c r="E47" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48">
+        <v>1.8725028268556501</v>
+      </c>
+      <c r="D48">
         <v>8.6394250758593295E-4</v>
       </c>
-      <c r="D27" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28">
-        <v>1.8725028268556501</v>
-      </c>
-      <c r="C28">
+      <c r="E48" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>494</v>
+      </c>
+      <c r="C49">
+        <v>1.3834321731642301</v>
+      </c>
+      <c r="D49">
         <v>8.6394250758593295E-4</v>
       </c>
-      <c r="D28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>494</v>
-      </c>
-      <c r="B29">
-        <v>1.3834321731642301</v>
-      </c>
-      <c r="C29">
+      <c r="E49" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>748</v>
+      </c>
+      <c r="C50">
+        <v>1.17831828040367</v>
+      </c>
+      <c r="D50">
         <v>8.6394250758593295E-4</v>
       </c>
-      <c r="D29" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>748</v>
-      </c>
-      <c r="B30">
-        <v>1.17831828040367</v>
-      </c>
-      <c r="C30">
-        <v>8.6394250758593295E-4</v>
-      </c>
-      <c r="D30" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="E50" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>735</v>
       </c>
-      <c r="B31">
+      <c r="C51">
         <v>2.0570290237180502</v>
       </c>
-      <c r="C31">
+      <c r="D51">
         <v>1.0572253419304199E-3</v>
       </c>
-      <c r="D31" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="E51" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>21</v>
       </c>
-      <c r="B32">
+      <c r="C52">
         <v>1.4119618128204099</v>
       </c>
-      <c r="C32">
+      <c r="D52">
         <v>1.0572253419304199E-3</v>
       </c>
-      <c r="D32" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>625</v>
-      </c>
-      <c r="B33">
-        <v>-2.1460238321143601</v>
-      </c>
-      <c r="C33">
-        <v>1.0572253419304199E-3</v>
-      </c>
-      <c r="D33" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>490</v>
-      </c>
-      <c r="B34">
-        <v>-1.5461872443098901</v>
-      </c>
-      <c r="C34">
-        <v>1.15380415051944E-3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35">
-        <v>1.37632200235362</v>
-      </c>
-      <c r="C35">
-        <v>1.2409955096713901E-3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>420</v>
-      </c>
-      <c r="B36">
-        <v>-1.2710400636988499</v>
-      </c>
-      <c r="C36">
-        <v>1.30032036994123E-3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>766</v>
-      </c>
-      <c r="B37">
-        <v>-1.26267175331976</v>
-      </c>
-      <c r="C37">
-        <v>1.33856763021095E-3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38">
-        <v>-1.31252008447112</v>
-      </c>
-      <c r="C38">
-        <v>1.4017661317271501E-3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="E52" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>322</v>
       </c>
-      <c r="B39">
+      <c r="C53">
         <v>-1.3152569491000801</v>
       </c>
-      <c r="C39">
+      <c r="D53">
         <v>1.5828546254672399E-3</v>
       </c>
-      <c r="D39" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="E53" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>119</v>
       </c>
-      <c r="B40">
+      <c r="C54">
         <v>-1.61918009685562</v>
       </c>
-      <c r="C40">
+      <c r="D54">
         <v>1.92793773457357E-3</v>
       </c>
-      <c r="D40" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>730</v>
-      </c>
-      <c r="B41">
-        <v>-1.50751847322803</v>
-      </c>
-      <c r="C41">
-        <v>1.9414306211482501E-3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42">
-        <v>1.20605246707633</v>
-      </c>
-      <c r="C42">
-        <v>2.3079565417698199E-3</v>
-      </c>
-      <c r="D42" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="E54" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>18</v>
       </c>
-      <c r="B43">
+      <c r="C55">
         <v>1.09685635967474</v>
       </c>
-      <c r="C43">
+      <c r="D55">
         <v>2.42091376186745E-3</v>
       </c>
-      <c r="D43" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44">
-        <v>2.9512745622934702</v>
-      </c>
-      <c r="C44">
-        <v>2.42091376186745E-3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45">
-        <v>1.2512487943025401</v>
-      </c>
-      <c r="C45">
-        <v>2.5563156492546201E-3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="E55" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>7</v>
       </c>
-      <c r="B46">
+      <c r="C56">
         <v>1.2288431139551801</v>
       </c>
-      <c r="C46">
+      <c r="D56">
         <v>2.7066571625113099E-3</v>
       </c>
-      <c r="D46" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>796</v>
-      </c>
-      <c r="B47">
-        <v>-1.06398875158162</v>
-      </c>
-      <c r="C47">
-        <v>2.7914975518458299E-3</v>
-      </c>
-      <c r="D47" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="E56" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>321</v>
       </c>
-      <c r="B48">
+      <c r="C57">
         <v>1.07436828859317</v>
       </c>
-      <c r="C48">
+      <c r="D57">
         <v>3.0981658794223799E-3</v>
       </c>
-      <c r="D48" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49">
-        <v>-1.55604091337636</v>
-      </c>
-      <c r="C49">
+      <c r="E57" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>835</v>
+      </c>
+      <c r="C58">
+        <v>1.1518183765730401</v>
+      </c>
+      <c r="D58">
         <v>4.9189735085519801E-3</v>
       </c>
-      <c r="D49" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>835</v>
-      </c>
-      <c r="B50">
-        <v>1.1518183765730401</v>
-      </c>
-      <c r="C50">
+      <c r="E58" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59">
+        <v>-1.31902518287208</v>
+      </c>
+      <c r="D59">
         <v>4.9189735085519801E-3</v>
       </c>
-      <c r="D50" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51">
-        <v>-1.31902518287208</v>
-      </c>
-      <c r="C51">
-        <v>4.9189735085519801E-3</v>
-      </c>
-      <c r="D51" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>517</v>
-      </c>
-      <c r="B52">
-        <v>-1.04774104715767</v>
-      </c>
-      <c r="C52">
-        <v>5.0051131827925704E-3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>149</v>
-      </c>
-      <c r="B53">
-        <v>1.1163257161900999</v>
-      </c>
-      <c r="C53">
-        <v>5.2372228012780696E-3</v>
-      </c>
-      <c r="D53" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="E59" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>728</v>
       </c>
-      <c r="B54">
+      <c r="C60">
         <v>-1.41279117596809</v>
       </c>
-      <c r="C54">
+      <c r="D60">
         <v>5.5068080902828404E-3</v>
       </c>
-      <c r="D54" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>558</v>
-      </c>
-      <c r="B55">
-        <v>1.1463224221466399</v>
-      </c>
-      <c r="C55">
-        <v>5.5068080902828404E-3</v>
-      </c>
-      <c r="D55" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56">
-        <v>1.1628430707892099</v>
-      </c>
-      <c r="C56">
-        <v>5.72415070956754E-3</v>
-      </c>
-      <c r="D56" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57">
-        <v>1.3472363785424299</v>
-      </c>
-      <c r="C57">
-        <v>5.8300029615156301E-3</v>
-      </c>
-      <c r="D57" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58">
-        <v>1.21731090079201</v>
-      </c>
-      <c r="C58">
+      <c r="E60" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>572</v>
+      </c>
+      <c r="C61">
+        <v>-1.09030576131301</v>
+      </c>
+      <c r="D61">
         <v>8.0480317432250498E-3</v>
       </c>
-      <c r="D58" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>572</v>
-      </c>
-      <c r="B59">
-        <v>-1.09030576131301</v>
-      </c>
-      <c r="C59">
+      <c r="E61" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62">
+        <v>-1.0207296483806501</v>
+      </c>
+      <c r="D62">
         <v>8.0480317432250498E-3</v>
       </c>
-      <c r="D59" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60">
-        <v>-1.0207296483806501</v>
-      </c>
-      <c r="C60">
-        <v>8.0480317432250498E-3</v>
-      </c>
-      <c r="D60" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>155</v>
-      </c>
-      <c r="B61">
-        <v>1.00528744480995</v>
-      </c>
-      <c r="C61">
-        <v>9.6096834799730205E-3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>687</v>
-      </c>
-      <c r="B62">
-        <v>-1.24025052815361</v>
-      </c>
-      <c r="C62">
-        <v>9.9723695765772998E-3</v>
-      </c>
-      <c r="D62" t="s">
-        <v>846</v>
+      <c r="E62" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E62">
+    <sortCondition ref="E2:E62"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>